--- a/Design document/Excels/khen_thuong_doan.xlsx
+++ b/Design document/Excels/khen_thuong_doan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="61">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -49,106 +49,160 @@
     <t xml:space="preserve">gioi</t>
   </si>
   <si>
+    <t xml:space="preserve">Nguyễn Phạm Thiện Dũng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Trọng Đạt</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nguyễn Trọng Đông</t>
   </si>
   <si>
     <t xml:space="preserve">Nguyễn Trường Giang</t>
   </si>
   <si>
+    <t xml:space="preserve">Nguyễn Hoàng Hải</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chu Viết Hiếu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Huy Hoàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Nguyễn Hoàng</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nguyễn Hữu Hồng</t>
   </si>
   <si>
-    <t xml:space="preserve">Nguyễn Tiến Việt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K59CAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bùi Tiến Đạt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phạm Văn Định</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Trung Hiếu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14020022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Hoàng Biên</t>
+    <t xml:space="preserve">Nguyễn Như Huy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lương Ngọc Huyền</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Quang Bách</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K59CB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thanh Bình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngô Đăng Chắc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Bá Hữu Chí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Đức Chung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Hữu Có</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Bảo Cường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vũ Hữu Duân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lâm Thị Dung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lý Khánh Duy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dương Công Đại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Châu Quốc Đạt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dương Xuân Đồng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Việt Đức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thị Hồng Hải</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn Hải</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thị Hạnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàng Thanh Hằng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bùi Duy Hiển</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Mạnh Cường</t>
   </si>
   <si>
     <t xml:space="preserve">K59CLC</t>
   </si>
   <si>
-    <t xml:space="preserve">Nguyễn Thành Công</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bùi Quang Cường</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Mạnh Cường</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Văn An</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K59CB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoàng Tuấn Anh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Hoàng Anh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Quang Bách</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lê Đức Duy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K59CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Ngọc Duy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trịnh Quốc Đạt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lương Văn Đông</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lê Đình Dũng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K59CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngô Tùng Dương</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Minh Dương</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vũ Đình Đúng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Minh Công</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K59N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Thị Dung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Việt Dũng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phạm Tùng Dương</t>
+    <t xml:space="preserve">Hà Hồng Duyên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Đình Dương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn Đại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Xuân Đạt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Minh Đức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đàm Thị Hà</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàng Văn Hải</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tô Mạnh Hiệp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Minh Hiếu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Quang Hiếu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Thị Thanh Huyền</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Quang Hưng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Đức Khanh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thị Lan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Minh Hoàng Linh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vũ Thùy Linh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Việt Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tô Hiến Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đinh Tiến Lộc</t>
   </si>
 </sst>
 </file>
@@ -257,7 +311,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -282,16 +336,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -306,24 +356,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -347,20 +381,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.6122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -383,7 +417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -403,18 +437,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>14020791</v>
+        <v>14020072</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="n">
-        <v>35290</v>
+      <c r="D3" s="4" t="n">
+        <v>35338</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -423,18 +457,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>14020783</v>
+        <v>14020801</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>35345</v>
+        <v>35399</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -443,18 +477,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>14020198</v>
+        <v>14020791</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>35347</v>
+        <v>35290</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
@@ -463,483 +497,943 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="n">
-        <v>14020553</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="2" t="n">
+        <v>14020783</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>35282</v>
+        <v>35345</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>14020581</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>14</v>
+        <v>14020792</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>35137</v>
+        <v>35425</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>14020108</v>
-      </c>
-      <c r="C8" s="8" t="s">
+        <v>14020163</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>35355</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>14020190</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5" t="n">
-        <v>35104</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>14020171</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D9" s="5" t="n">
-        <v>35096</v>
+        <v>35126</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="11" t="n">
-        <v>35332</v>
+      <c r="B10" s="2" t="n">
+        <v>14020663</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>35360</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="n">
-        <v>14020042</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="11" t="n">
-        <v>35120</v>
+      <c r="B11" s="2" t="n">
+        <v>14020198</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>35347</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="n">
-        <v>14020577</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="11" t="n">
-        <v>35421</v>
+      <c r="B12" s="2" t="n">
+        <v>14020208</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>35209</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="n">
-        <v>14020056</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="11" t="n">
-        <v>35069</v>
+      <c r="B13" s="2" t="n">
+        <v>14020664</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>35207</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>14020002</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="12" t="n">
-        <v>35321</v>
+        <v>14020652</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>35176</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>14020003</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="12" t="n">
-        <v>35126</v>
+        <v>14020025</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>35288</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>14020005</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="12" t="n">
-        <v>34746</v>
+        <v>14020653</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>35255</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>14020652</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="12" t="n">
-        <v>35176</v>
+        <v>14020576</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>35266</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="n">
-        <v>14020655</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="14" t="n">
-        <v>35413</v>
+      <c r="B18" s="2" t="n">
+        <v>14020038</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>35382</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="n">
-        <v>14020065</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="14" t="n">
-        <v>35348</v>
+      <c r="B19" s="2" t="n">
+        <v>14020039</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>35088</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="n">
-        <v>14020103</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="14" t="n">
-        <v>35394</v>
+      <c r="B20" s="2" t="n">
+        <v>14020578</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>35075</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="n">
-        <v>14020113</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="14" t="n">
-        <v>34717</v>
+      <c r="B21" s="2" t="n">
+        <v>14020061</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>35112</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>14020818</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="15" t="n">
-        <v>14020071</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="16" t="n">
-        <v>35271</v>
+      <c r="D22" s="7" t="n">
+        <v>35024</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="15" t="n">
-        <v>14020080</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="16" t="n">
-        <v>35373</v>
+      <c r="B23" s="2" t="n">
+        <v>14020064</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>35253</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="15" t="n">
-        <v>14020657</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="16" t="n">
-        <v>35145</v>
+      <c r="B24" s="2" t="n">
+        <v>14020088</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>35375</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="15" t="n">
-        <v>14020117</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="16" t="n">
-        <v>32470</v>
+      <c r="B25" s="2" t="n">
+        <v>14020582</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>35289</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="15" t="n">
-        <v>14020041</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="16" t="n">
-        <v>35325</v>
+      <c r="B26" s="2" t="n">
+        <v>14020116</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <v>35226</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="15" t="n">
-        <v>14020580</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="16" t="n">
-        <v>35359</v>
+      <c r="B27" s="2" t="n">
+        <v>14020658</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>35429</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="15" t="n">
-        <v>14020076</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="16" t="n">
-        <v>35308</v>
+      <c r="B28" s="2" t="n">
+        <v>14020585</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <v>35236</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="15" t="n">
-        <v>14020083</v>
-      </c>
-      <c r="C29" s="17" t="s">
+      <c r="B29" s="2" t="n">
+        <v>14020146</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>35362</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>14020661</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <v>35151</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>14020155</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <v>35212</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>14020161</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="7" t="n">
+        <v>34823</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="n">
+        <v>14020056</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="10" t="n">
+        <v>35069</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="n">
+        <v>14020066</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="16" t="n">
-        <v>35222</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="D34" s="10" t="n">
+        <v>35376</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="n">
+        <v>14020084</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="10" t="n">
+        <v>35300</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="n">
+        <v>14020091</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="10" t="n">
+        <v>35355</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="n">
+        <v>14020102</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="10" t="n">
+        <v>35343</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="n">
+        <v>14020123</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="10" t="n">
+        <v>35253</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="n">
+        <v>14020131</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="10" t="n">
+        <v>35154</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="B40" s="8" t="n">
+        <v>14020139</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="10" t="n">
+        <v>35414</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="n">
+        <v>14020180</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="10" t="n">
+        <v>35072</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="n">
+        <v>14020169</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="10" t="n">
+        <v>35417</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="n">
+        <v>14020170</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="10" t="n">
+        <v>35242</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>14020213</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="10" t="n">
+        <v>35197</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="n">
+        <v>14020225</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="10" t="n">
+        <v>35072</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="n">
+        <v>14020234</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="10" t="n">
+        <v>35120</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>14020249</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="10" t="n">
+        <v>35414</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="11" t="n">
+        <v>14020752</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="10" t="n">
+        <v>35373</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8" t="n">
+        <v>14020629</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="10" t="n">
+        <v>35141</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8" t="n">
+        <v>14020669</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="10" t="n">
+        <v>35383</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8" t="n">
+        <v>14020266</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="10" t="n">
+        <v>35145</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="8" t="n">
+        <v>14020268</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="10" t="n">
+        <v>35419</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="0" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Design document/Excels/khen_thuong_doan.xlsx
+++ b/Design document/Excels/khen_thuong_doan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="63">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">K59CA</t>
   </si>
   <si>
-    <t xml:space="preserve">gioi</t>
+    <t xml:space="preserve">Giỏi</t>
   </si>
   <si>
     <t xml:space="preserve">Nguyễn Phạm Thiện Dũng</t>
@@ -55,6 +55,9 @@
     <t xml:space="preserve">Trần Trọng Đạt</t>
   </si>
   <si>
+    <t xml:space="preserve">Khá</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nguyễn Trọng Đông</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">Nguyễn Hoàng Hải</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xuất Sắc</t>
   </si>
   <si>
     <t xml:space="preserve">Chu Viết Hiếu</t>
@@ -383,18 +389,18 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28:F52"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -417,7 +423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -437,7 +443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -457,7 +463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -474,10 +480,10 @@
         <v>7</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
@@ -485,7 +491,7 @@
         <v>14020791</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>35290</v>
@@ -494,10 +500,10 @@
         <v>7</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
@@ -505,7 +511,7 @@
         <v>14020783</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>35345</v>
@@ -517,7 +523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
@@ -525,7 +531,7 @@
         <v>14020792</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>35425</v>
@@ -534,10 +540,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
@@ -545,7 +551,7 @@
         <v>14020163</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>35355</v>
@@ -557,7 +563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
@@ -565,7 +571,7 @@
         <v>14020190</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>35126</v>
@@ -577,7 +583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
@@ -585,7 +591,7 @@
         <v>14020663</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>35360</v>
@@ -594,10 +600,10 @@
         <v>7</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
@@ -605,7 +611,7 @@
         <v>14020198</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>35347</v>
@@ -614,10 +620,10 @@
         <v>7</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
@@ -625,7 +631,7 @@
         <v>14020208</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>35209</v>
@@ -637,7 +643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
@@ -645,7 +651,7 @@
         <v>14020664</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>35207</v>
@@ -654,10 +660,10 @@
         <v>7</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
@@ -665,19 +671,19 @@
         <v>14020652</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7" t="n">
         <v>35176</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
@@ -685,19 +691,19 @@
         <v>14020025</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" s="7" t="n">
         <v>35288</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
@@ -705,19 +711,19 @@
         <v>14020653</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7" t="n">
         <v>35255</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
@@ -725,19 +731,19 @@
         <v>14020576</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" s="7" t="n">
         <v>35266</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
@@ -745,19 +751,19 @@
         <v>14020038</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D18" s="7" t="n">
         <v>35382</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
@@ -765,19 +771,19 @@
         <v>14020039</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D19" s="7" t="n">
         <v>35088</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
@@ -785,19 +791,19 @@
         <v>14020578</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20" s="7" t="n">
         <v>35075</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
@@ -805,19 +811,19 @@
         <v>14020061</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D21" s="7" t="n">
         <v>35112</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
@@ -825,19 +831,19 @@
         <v>14020818</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D22" s="7" t="n">
         <v>35024</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
@@ -845,19 +851,19 @@
         <v>14020064</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D23" s="7" t="n">
         <v>35253</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
@@ -865,19 +871,19 @@
         <v>14020088</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D24" s="7" t="n">
         <v>35375</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
@@ -885,19 +891,19 @@
         <v>14020582</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D25" s="7" t="n">
         <v>35289</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
@@ -905,19 +911,19 @@
         <v>14020116</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D26" s="7" t="n">
         <v>35226</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
@@ -925,13 +931,13 @@
         <v>14020658</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D27" s="7" t="n">
         <v>35429</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>8</v>
@@ -945,16 +951,16 @@
         <v>14020585</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D28" s="7" t="n">
         <v>35236</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -965,16 +971,16 @@
         <v>14020146</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D29" s="7" t="n">
         <v>35362</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -985,13 +991,13 @@
         <v>14020661</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D30" s="7" t="n">
         <v>35151</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>8</v>
@@ -1005,16 +1011,16 @@
         <v>14020155</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D31" s="7" t="n">
         <v>35212</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1025,13 +1031,13 @@
         <v>14020161</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D32" s="7" t="n">
         <v>34823</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>8</v>
@@ -1045,13 +1051,13 @@
         <v>14020056</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D33" s="10" t="n">
         <v>35069</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>8</v>
@@ -1065,16 +1071,16 @@
         <v>14020066</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D34" s="10" t="n">
         <v>35376</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,16 +1091,16 @@
         <v>14020084</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D35" s="10" t="n">
         <v>35300</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1105,13 +1111,13 @@
         <v>14020091</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D36" s="10" t="n">
         <v>35355</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>8</v>
@@ -1125,16 +1131,16 @@
         <v>14020102</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D37" s="10" t="n">
         <v>35343</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,13 +1151,13 @@
         <v>14020123</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D38" s="10" t="n">
         <v>35253</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>8</v>
@@ -1165,13 +1171,13 @@
         <v>14020131</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D39" s="10" t="n">
         <v>35154</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>8</v>
@@ -1185,16 +1191,16 @@
         <v>14020139</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D40" s="10" t="n">
         <v>35414</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1205,16 +1211,16 @@
         <v>14020180</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D41" s="10" t="n">
         <v>35072</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1225,13 +1231,13 @@
         <v>14020169</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D42" s="10" t="n">
         <v>35417</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>8</v>
@@ -1245,16 +1251,16 @@
         <v>14020170</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D43" s="10" t="n">
         <v>35242</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1265,13 +1271,13 @@
         <v>14020213</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D44" s="10" t="n">
         <v>35197</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>8</v>
@@ -1285,13 +1291,13 @@
         <v>14020225</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D45" s="10" t="n">
         <v>35072</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F45" s="0" t="s">
         <v>8</v>
@@ -1305,16 +1311,16 @@
         <v>14020234</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D46" s="10" t="n">
         <v>35120</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1325,16 +1331,16 @@
         <v>14020249</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D47" s="10" t="n">
         <v>35414</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1345,13 +1351,13 @@
         <v>14020752</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D48" s="10" t="n">
         <v>35373</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>8</v>
@@ -1365,16 +1371,16 @@
         <v>14020629</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D49" s="10" t="n">
         <v>35141</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1385,13 +1391,13 @@
         <v>14020669</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D50" s="10" t="n">
         <v>35383</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>8</v>
@@ -1405,13 +1411,13 @@
         <v>14020266</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D51" s="10" t="n">
         <v>35145</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>8</v>
@@ -1425,16 +1431,16 @@
         <v>14020268</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D52" s="10" t="n">
         <v>35419</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
